--- a/melon.xlsx
+++ b/melon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="166">
   <si>
     <t>순위</t>
   </si>
@@ -28,12 +28,12 @@
     <t>사랑은 늘 도망가</t>
   </si>
   <si>
+    <t>INVU</t>
+  </si>
+  <si>
     <t>취중고백</t>
   </si>
   <si>
-    <t>INVU</t>
-  </si>
-  <si>
     <t>ELEVEN</t>
   </si>
   <si>
@@ -46,28 +46,34 @@
     <t>호랑수월가</t>
   </si>
   <si>
+    <t>언제나 사랑해</t>
+  </si>
+  <si>
     <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
   </si>
   <si>
+    <t>이제 나만 믿어요</t>
+  </si>
+  <si>
     <t>SMILEY (Feat. BIBI)</t>
   </si>
   <si>
     <t>Counting Stars (Feat. Beenzino)</t>
   </si>
   <si>
+    <t>다정히 내 이름을 부르면</t>
+  </si>
+  <si>
     <t>눈이 오잖아(Feat.헤이즈)</t>
   </si>
   <si>
-    <t>다정히 내 이름을 부르면</t>
-  </si>
-  <si>
     <t>Dreams Come True</t>
   </si>
   <si>
     <t>Can't Control Myself</t>
   </si>
   <si>
-    <t>이제 나만 믿어요</t>
+    <t>다시 사랑한다면 (김필 Ver.)</t>
   </si>
   <si>
     <t>겨울잠</t>
@@ -76,264 +82,258 @@
     <t>STAY</t>
   </si>
   <si>
-    <t>언제나 사랑해</t>
+    <t>잊을 수 있을까</t>
+  </si>
+  <si>
+    <t>그대라는 사치</t>
+  </si>
+  <si>
+    <t>별빛 같은 나의 사랑아</t>
   </si>
   <si>
     <t>신호등</t>
   </si>
   <si>
+    <t>strawberry moon</t>
+  </si>
+  <si>
     <t>Next Level</t>
   </si>
   <si>
-    <t>strawberry moon</t>
+    <t>잊었니</t>
+  </si>
+  <si>
+    <t>HERO</t>
+  </si>
+  <si>
+    <t>abcdefu</t>
+  </si>
+  <si>
+    <t>끝사랑</t>
+  </si>
+  <si>
+    <t>너 아니면 안돼</t>
+  </si>
+  <si>
+    <t>Christmas Tree</t>
   </si>
   <si>
     <t>만남은 쉽고 이별은 어려워 (Feat. Leellamarz) (Prod. TOIL)</t>
   </si>
   <si>
-    <t>다시 사랑한다면 (김필 Ver.)</t>
-  </si>
-  <si>
-    <t>Christmas Tree</t>
-  </si>
-  <si>
     <t>Savage</t>
   </si>
   <si>
-    <t>그대라는 사치</t>
-  </si>
-  <si>
-    <t>잊을 수 있을까</t>
+    <t>Butter</t>
   </si>
   <si>
     <t>드라마</t>
   </si>
   <si>
-    <t>별빛 같은 나의 사랑아</t>
-  </si>
-  <si>
-    <t>Butter</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
-  </si>
-  <si>
-    <t>잊었니</t>
-  </si>
-  <si>
-    <t>HERO</t>
+    <t>Bk Love</t>
+  </si>
+  <si>
+    <t>Satellite</t>
   </si>
   <si>
     <t>Dynamite</t>
   </si>
   <si>
+    <t>그래서 그래 (Feat. 윤하)</t>
+  </si>
+  <si>
+    <t>언덕나무</t>
+  </si>
+  <si>
+    <t>너, 너 (N번째 연애 X 휘인 (Whee In))</t>
+  </si>
+  <si>
+    <t>서랍</t>
+  </si>
+  <si>
+    <t>Permission to Dance</t>
+  </si>
+  <si>
     <t>너를 생각해</t>
   </si>
   <si>
+    <t>우리가 헤어져야 했던 이유</t>
+  </si>
+  <si>
     <t>흰눈</t>
   </si>
   <si>
-    <t>서랍</t>
-  </si>
-  <si>
-    <t>너 아니면 안돼</t>
-  </si>
-  <si>
-    <t>그래서 그래 (Feat. 윤하)</t>
-  </si>
-  <si>
-    <t>우리가 헤어져야 했던 이유</t>
-  </si>
-  <si>
-    <t>끝사랑</t>
-  </si>
-  <si>
-    <t>언덕나무</t>
-  </si>
-  <si>
-    <t>Permission to Dance</t>
+    <t>My Universe</t>
   </si>
   <si>
     <t>OHAYO MY NIGHT</t>
   </si>
   <si>
-    <t>My Universe</t>
+    <t>계단말고 엘리베이터</t>
+  </si>
+  <si>
+    <t>Weekend</t>
   </si>
   <si>
     <t>문득</t>
   </si>
   <si>
-    <t>Weekend</t>
-  </si>
-  <si>
-    <t>Bk Love</t>
-  </si>
-  <si>
     <t>바라만 본다</t>
   </si>
   <si>
     <t>네가 없는 밤 (Feat. ASH ISLAND) (Prod. GRAY)</t>
   </si>
   <si>
+    <t>Celebrity</t>
+  </si>
+  <si>
+    <t>라일락</t>
+  </si>
+  <si>
+    <t>Good Night (Feat. BE'O)</t>
+  </si>
+  <si>
+    <t>불협화음 (Feat. AKMU) (Prod. GRAY)</t>
+  </si>
+  <si>
+    <t>낙하 (with 아이유)</t>
+  </si>
+  <si>
     <t>그런 밤 (Some Nights)</t>
   </si>
   <si>
-    <t>Celebrity</t>
-  </si>
-  <si>
-    <t>불협화음 (Feat. AKMU) (Prod. GRAY)</t>
-  </si>
-  <si>
-    <t>너, 너 (N번째 연애 X 휘인 (Whee In))</t>
-  </si>
-  <si>
-    <t>라일락</t>
-  </si>
-  <si>
-    <t>낙하 (with 아이유)</t>
-  </si>
-  <si>
     <t>밤하늘의 별을(2020)</t>
   </si>
   <si>
     <t>사랑이 아니었다고 말하지 마요</t>
   </si>
   <si>
+    <t>대낮에 한 이별</t>
+  </si>
+  <si>
+    <t>Bad Habits</t>
+  </si>
+  <si>
+    <t>헤픈 우연</t>
+  </si>
+  <si>
     <t>사이렌 Remix (Feat. UNEDUCATED KID, Paul Blanco)</t>
   </si>
   <si>
     <t>쉬어 (Feat. MINO) (Prod. GRAY)</t>
   </si>
   <si>
-    <t>헤픈 우연</t>
+    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
   </si>
   <si>
     <t>Wake Up (Prod. 코드 쿤스트)</t>
   </si>
   <si>
-    <t>Bad Habits</t>
-  </si>
-  <si>
-    <t>Good Night (Feat. BE'O)</t>
+    <t>너의 모든 순간</t>
+  </si>
+  <si>
+    <t>찰나가 영원이 될 때 (The Eternal Moment)</t>
+  </si>
+  <si>
+    <t>그게 더 편할 것 같아 (N번째 연애 X 멜로망스)</t>
+  </si>
+  <si>
+    <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+  </si>
+  <si>
+    <t>Off My Face</t>
+  </si>
+  <si>
+    <t>내 손을 잡아</t>
+  </si>
+  <si>
+    <t>봄날</t>
+  </si>
+  <si>
+    <t>고백</t>
+  </si>
+  <si>
+    <t>강변북로</t>
+  </si>
+  <si>
+    <t>Stay Alive (Prod. SUGA of BTS)</t>
+  </si>
+  <si>
+    <t>작은 것들을 위한 시 (Boy With Luv) (Feat. Halsey)</t>
+  </si>
+  <si>
+    <t>롤린 (Rollin')</t>
+  </si>
+  <si>
+    <t>추억은 만남보다 이별에 남아</t>
+  </si>
+  <si>
+    <t>Blueming</t>
+  </si>
+  <si>
+    <t>이별후회</t>
+  </si>
+  <si>
+    <t>Dun Dun Dance</t>
+  </si>
+  <si>
+    <t>Because</t>
+  </si>
+  <si>
+    <t>Savage Love (Laxed - Siren Beat) (BTS Remix)</t>
+  </si>
+  <si>
+    <t>밝게 빛나는 별이 되어 비춰줄게</t>
   </si>
   <si>
     <t>Dilemma</t>
   </si>
   <si>
-    <t>그게 더 편할 것 같아 (N번째 연애 X 멜로망스)</t>
-  </si>
-  <si>
-    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
-  </si>
-  <si>
-    <t>찰나가 영원이 될 때 (The Eternal Moment)</t>
-  </si>
-  <si>
-    <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
-  </si>
-  <si>
-    <t>Off My Face</t>
-  </si>
-  <si>
-    <t>고백</t>
-  </si>
-  <si>
-    <t>내 손을 잡아</t>
-  </si>
-  <si>
-    <t>계단말고 엘리베이터</t>
-  </si>
-  <si>
-    <t>너의 모든 순간</t>
-  </si>
-  <si>
-    <t>봄날</t>
-  </si>
-  <si>
-    <t>작은 것들을 위한 시 (Boy With Luv) (Feat. Halsey)</t>
-  </si>
-  <si>
-    <t>추억은 만남보다 이별에 남아</t>
-  </si>
-  <si>
-    <t>롤린 (Rollin')</t>
-  </si>
-  <si>
-    <t>Blueming</t>
+    <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
   </si>
   <si>
     <t>DM</t>
   </si>
   <si>
-    <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
+    <t>여름비</t>
   </si>
   <si>
     <t>취기를 빌려 (취향저격 그녀 X 산들)</t>
   </si>
   <si>
-    <t>Savage Love (Laxed - Siren Beat) (BTS Remix)</t>
-  </si>
-  <si>
-    <t>이별후회</t>
-  </si>
-  <si>
-    <t>대낮에 한 이별</t>
-  </si>
-  <si>
-    <t>Dun Dun Dance</t>
-  </si>
-  <si>
-    <t>밝게 빛나는 별이 되어 비춰줄게</t>
-  </si>
-  <si>
-    <t>강변북로</t>
-  </si>
-  <si>
-    <t>Set Myself On Fire</t>
+    <t>시간을 거슬러 (낮에 뜨는 달 X 케이윌)</t>
+  </si>
+  <si>
+    <t>비가 오는 날엔 (2021)</t>
+  </si>
+  <si>
+    <t>Life Goes On</t>
+  </si>
+  <si>
+    <t>그날에 나는 맘이 편했을까</t>
+  </si>
+  <si>
+    <t>안녕 우린 헤어져야만 해</t>
   </si>
   <si>
     <t>어른아이 (Toddler)</t>
   </si>
   <si>
-    <t>비가 오는 날엔 (2021)</t>
-  </si>
-  <si>
-    <t>Stay Alive (Prod. SUGA of BTS)</t>
-  </si>
-  <si>
-    <t>시간을 거슬러 (낮에 뜨는 달 X 케이윌)</t>
-  </si>
-  <si>
-    <t>여름비</t>
-  </si>
-  <si>
-    <t>Life Goes On</t>
-  </si>
-  <si>
-    <t>Because</t>
-  </si>
-  <si>
-    <t>안녕 우린 헤어져야만 해</t>
-  </si>
-  <si>
-    <t>그날에 나는 맘이 편했을까</t>
+    <t>Queendom</t>
   </si>
   <si>
     <t>멜로디</t>
   </si>
   <si>
-    <t>Queendom</t>
-  </si>
-  <si>
     <t>임영웅</t>
   </si>
   <si>
+    <t>태연 (TAEYEON)</t>
+  </si>
+  <si>
     <t>김민석 (멜로망스)</t>
   </si>
   <si>
-    <t>태연 (TAEYEON)</t>
-  </si>
-  <si>
     <t>IVE (아이브)</t>
   </si>
   <si>
@@ -346,18 +346,21 @@
     <t>탑현</t>
   </si>
   <si>
+    <t>케이시 (Kassy)</t>
+  </si>
+  <si>
     <t>BE'O (비오)</t>
   </si>
   <si>
     <t>YENA (최예나)</t>
   </si>
   <si>
+    <t>경서예지</t>
+  </si>
+  <si>
     <t>이무진</t>
   </si>
   <si>
-    <t>경서예지</t>
-  </si>
-  <si>
     <t>aespa</t>
   </si>
   <si>
@@ -367,57 +370,60 @@
     <t>The Kid LAROI</t>
   </si>
   <si>
-    <t>케이시 (Kassy)</t>
+    <t>노을</t>
+  </si>
+  <si>
+    <t>GAYLE</t>
+  </si>
+  <si>
+    <t>먼데이 키즈 (Monday Kiz)</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
   <si>
     <t>베이식 (Basick)</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>노을</t>
-  </si>
-  <si>
     <t>방탄소년단</t>
   </si>
   <si>
-    <t>GAYLE</t>
+    <t>수지</t>
+  </si>
+  <si>
+    <t>에픽하이 (EPIK HIGH)</t>
+  </si>
+  <si>
+    <t>이승윤</t>
+  </si>
+  <si>
+    <t>휘인 (Whee In)</t>
+  </si>
+  <si>
+    <t>10CM</t>
   </si>
   <si>
     <t>주시크 (Joosiq)</t>
   </si>
   <si>
-    <t>먼데이 키즈 (Monday Kiz)</t>
-  </si>
-  <si>
-    <t>10CM</t>
-  </si>
-  <si>
-    <t>에픽하이 (EPIK HIGH)</t>
-  </si>
-  <si>
     <t>비비 (BIBI)</t>
   </si>
   <si>
-    <t>이승윤</t>
+    <t>Coldplay</t>
   </si>
   <si>
     <t>디핵 (D-Hack)</t>
   </si>
   <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
     <t>MSG워너비(M.O.M)</t>
   </si>
   <si>
+    <t>쿠기 (Coogie)</t>
+  </si>
+  <si>
     <t>Mudd the student</t>
   </si>
   <si>
-    <t>휘인 (Whee In)</t>
-  </si>
-  <si>
     <t>AKMU (악뮤)</t>
   </si>
   <si>
@@ -427,82 +433,79 @@
     <t>이예준</t>
   </si>
   <si>
+    <t>선예</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>헤이즈 (Heize)</t>
+  </si>
+  <si>
     <t>호미들</t>
   </si>
   <si>
     <t>아넌딜라이트(Anandelight)</t>
   </si>
   <si>
-    <t>헤이즈 (Heize)</t>
+    <t>폴킴</t>
   </si>
   <si>
     <t>개코</t>
   </si>
   <si>
-    <t>Ed Sheeran</t>
-  </si>
-  <si>
-    <t>쿠기 (Coogie)</t>
+    <t>성시경</t>
+  </si>
+  <si>
+    <t>마크툽 (MAKTUB)</t>
+  </si>
+  <si>
+    <t>멜로망스</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>황인욱</t>
+  </si>
+  <si>
+    <t>정국</t>
+  </si>
+  <si>
+    <t>브레이브걸스</t>
+  </si>
+  <si>
+    <t>정동하</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>오마이걸 (OH MY GIRL)</t>
+  </si>
+  <si>
+    <t>ASH ISLAND</t>
+  </si>
+  <si>
+    <t>Jawsh 685</t>
+  </si>
+  <si>
+    <t>송이한</t>
   </si>
   <si>
     <t>Apink (에이핑크)</t>
   </si>
   <si>
-    <t>멜로망스</t>
-  </si>
-  <si>
-    <t>폴킴</t>
-  </si>
-  <si>
-    <t>마크툽 (MAKTUB)</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>성시경</t>
-  </si>
-  <si>
-    <t>정동하</t>
-  </si>
-  <si>
-    <t>브레이브걸스</t>
-  </si>
-  <si>
     <t>프로미스나인</t>
   </si>
   <si>
+    <t>샘김 (Sam Kim)</t>
+  </si>
+  <si>
     <t>산들</t>
   </si>
   <si>
-    <t>Jawsh 685</t>
-  </si>
-  <si>
-    <t>김나영</t>
-  </si>
-  <si>
-    <t>선예</t>
-  </si>
-  <si>
-    <t>오마이걸 (OH MY GIRL)</t>
-  </si>
-  <si>
-    <t>송이한</t>
-  </si>
-  <si>
-    <t>황인욱</t>
-  </si>
-  <si>
-    <t>정국</t>
-  </si>
-  <si>
     <t>케이윌</t>
-  </si>
-  <si>
-    <t>샘김 (Sam Kim)</t>
-  </si>
-  <si>
-    <t>ASH ISLAND</t>
   </si>
   <si>
     <t>전상근</t>
@@ -990,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1012,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1023,7 +1026,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1034,7 +1037,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1045,7 +1048,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1056,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1067,7 +1070,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1078,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1089,7 +1092,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1100,7 +1103,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1111,7 +1114,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1122,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1133,7 +1136,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1144,7 +1147,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1155,7 +1158,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1177,7 +1180,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1188,7 +1191,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1210,7 +1213,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1221,7 +1224,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1232,7 +1235,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1243,7 +1246,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1254,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1265,7 +1268,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1276,7 +1279,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1287,7 +1290,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1298,7 +1301,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1309,7 +1312,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1320,7 +1323,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1331,7 +1334,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1353,7 +1356,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1386,7 +1389,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1397,7 +1400,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1408,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1419,7 +1422,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1430,7 +1433,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1441,7 +1444,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1452,7 +1455,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1463,7 +1466,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1474,7 +1477,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1485,7 +1488,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1529,7 +1532,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1540,7 +1543,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1551,7 +1554,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1562,7 +1565,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1573,7 +1576,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1584,7 +1587,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1595,7 +1598,7 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1606,7 +1609,7 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1617,7 +1620,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1628,7 +1631,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1639,7 +1642,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1661,7 +1664,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1672,7 +1675,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1683,7 +1686,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1694,7 +1697,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1705,7 +1708,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1716,7 +1719,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1727,7 +1730,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1738,7 +1741,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1749,7 +1752,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1760,7 +1763,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1771,7 +1774,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1782,7 +1785,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1793,7 +1796,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1804,7 +1807,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1815,7 +1818,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1826,7 +1829,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1837,7 +1840,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1848,7 +1851,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1859,7 +1862,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1870,7 +1873,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1881,7 +1884,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1892,7 +1895,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1903,7 +1906,7 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1914,7 +1917,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1925,7 +1928,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1936,7 +1939,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1947,7 +1950,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1958,7 +1961,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1969,7 +1972,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1980,7 +1983,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
